--- a/Test_Documentation/Test_Cases/Web_app/TestCases_for_learn.epam.com_STA_course.xlsx
+++ b/Test_Documentation/Test_Cases/Web_app/TestCases_for_learn.epam.com_STA_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Test Cases\Web_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test_Documentation\Test_Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31528224-7517-4F33-A0BC-CBA0552DAC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AFBCE6-3731-4BCA-9C89-28096C117673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35940" yWindow="-4320" windowWidth="15870" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37770" yWindow="-3800" windowWidth="37770" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_cases_Smoke_learn.epam.com" sheetId="2" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,12 +734,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
@@ -753,279 +753,279 @@
     <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+    <row r="1" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2:K2" r:id="rId1" display="Back on main page" xr:uid="{A1B9ED90-C95D-40DC-932C-F02DF8C1CC04}"/>
+    <hyperlink ref="A1:K1" r:id="rId1" display="Back on main page" xr:uid="{A1B9ED90-C95D-40DC-932C-F02DF8C1CC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_Documentation/Test_Cases/Web_app/TestCases_for_learn.epam.com_STA_course.xlsx
+++ b/Test_Documentation/Test_Cases/Web_app/TestCases_for_learn.epam.com_STA_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test_Documentation\Test_Cases\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AFBCE6-3731-4BCA-9C89-28096C117673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458184F-5D38-4A41-9F57-6E3F943DEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37770" yWindow="-3800" windowWidth="37770" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_cases_Smoke_learn.epam.com" sheetId="2" r:id="rId1"/>
@@ -175,12 +175,6 @@
     <t>User access to the course materials on the eLearn.EPAM.com platform</t>
   </si>
   <si>
-    <t>Test cases for Smoke Testing scope for learn.epam.com (on March 2023)</t>
-  </si>
-  <si>
-    <t>Back on main page</t>
-  </si>
-  <si>
     <t>1. The dropdown menu of the Avatar opened.
 2. The user has signed out.</t>
   </si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Sub-module</t>
+  </si>
+  <si>
+    <t>Back on the main page</t>
+  </si>
+  <si>
+    <t>Test cases for Smoke Testing scope for learn.epam.com (on April 2023)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -397,23 +397,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,7 +731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K2"/>
+      <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,36 +751,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -791,13 +788,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -844,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -925,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>33</v>
@@ -934,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -996,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>29</v>
@@ -1005,17 +1002,17 @@
       <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
